--- a/inst/extdata/visit_dict.xlsx
+++ b/inst/extdata/visit_dict.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="316">
   <si>
     <t>old</t>
   </si>
@@ -44,9 +45,6 @@
     <t>date</t>
   </si>
   <si>
-    <t>date_day0</t>
-  </si>
-  <si>
     <t>Date of the enrolment / baseline data collection</t>
   </si>
   <si>
@@ -65,9 +63,6 @@
     <t>crfs_t05a_illness_duration</t>
   </si>
   <si>
-    <t>sick_duration_day0</t>
-  </si>
-  <si>
     <t>h1) How long has the child been unwell? (in days)</t>
   </si>
   <si>
@@ -77,9 +72,6 @@
     <t>crfs_t05a_tt05a_sym_convulsion</t>
   </si>
   <si>
-    <t>sx_convulsions_day0</t>
-  </si>
-  <si>
     <t>h2) Convulsions</t>
   </si>
   <si>
@@ -92,126 +84,84 @@
     <t>crfs_t05a_tt05a_sym_lethargy</t>
   </si>
   <si>
-    <t>sx_lethargy_day0</t>
-  </si>
-  <si>
     <t>h3) Lethargic or unconscious</t>
   </si>
   <si>
     <t>crfs_t05a_tt05a_c1_a_10</t>
   </si>
   <si>
-    <t>sx_vomit_day0</t>
-  </si>
-  <si>
     <t>h4) Vomiting</t>
   </si>
   <si>
     <t>crfs_t05a_tt05a_c1_a_10a</t>
   </si>
   <si>
-    <t>sx_vomit_evthing_day0</t>
-  </si>
-  <si>
     <t xml:space="preserve">h5) Vomiting everything </t>
   </si>
   <si>
     <t>crfs_t05a_tt05a_sym_less_appetite</t>
   </si>
   <si>
-    <t>sx_less_feed_day0</t>
-  </si>
-  <si>
     <t>h6) Eating of breastfeeding less than usual</t>
   </si>
   <si>
     <t>crfs_t05a_tt05a_sym_no_appetite</t>
   </si>
   <si>
-    <t>sx_unable_feed_day0</t>
-  </si>
-  <si>
     <t>h7) Completely unable to eat or drink</t>
   </si>
   <si>
     <t>crfs_t05a_ttt05a_c1_a_1</t>
   </si>
   <si>
-    <t>sx_cough_day0</t>
-  </si>
-  <si>
     <t>h8) Cough</t>
   </si>
   <si>
     <t>crfs_t05a_ttt05a_c1_a_2</t>
   </si>
   <si>
-    <t>sx_cough_onset_day0</t>
-  </si>
-  <si>
     <t>h9) Number of days since first onset of cough</t>
   </si>
   <si>
     <t>crfs_t05a_ttt05a_c1_a_3</t>
   </si>
   <si>
-    <t>sx_difficulty_breath_day0</t>
-  </si>
-  <si>
     <t>h10) Difficulty / rapid breathing</t>
   </si>
   <si>
     <t>crfs_t05a_ttt05a_c1_a_4</t>
   </si>
   <si>
-    <t>sx_difficulty_breath_onset_day0</t>
-  </si>
-  <si>
     <t>h11) Number of days since first onset of difficulty / rapid breathing</t>
   </si>
   <si>
     <t>crfs_t05a_ttt05a_c1_a_6</t>
   </si>
   <si>
-    <t>sx_diarrhoea_day0</t>
-  </si>
-  <si>
     <t>h12) Diarrhoea</t>
   </si>
   <si>
     <t>crfs_t05a_ttt05a_c1_a_7</t>
   </si>
   <si>
-    <t>sx_diarrhoea_onset_day0</t>
-  </si>
-  <si>
     <t>h13) Number of days since first onset of diarrhoea</t>
   </si>
   <si>
     <t>crfs_t05a_ttt05a_c1_a_8</t>
   </si>
   <si>
-    <t>sx_fever_day0</t>
-  </si>
-  <si>
     <t>h14) Fever</t>
   </si>
   <si>
     <t>crfs_t05a_ttt05a_c1_a_9</t>
   </si>
   <si>
-    <t>sx_fever_onset_day0</t>
-  </si>
-  <si>
     <t>h15) Number of days since first onset of fever</t>
   </si>
   <si>
     <t>crfs_t05a_ttt05a_c1_a_11</t>
   </si>
   <si>
-    <t>sx_var_day0</t>
-  </si>
-  <si>
     <t>h16) Anything else prompting you to bring ${child_fname} at the facility today?</t>
   </si>
   <si>
@@ -221,18 +171,12 @@
     <t>crfs_t05a_ttt05a_c1_a_11o</t>
   </si>
   <si>
-    <t>sx_varoth_day0</t>
-  </si>
-  <si>
     <t>h16.a) Please specify.</t>
   </si>
   <si>
     <t>crfs_t04a_b1_2</t>
   </si>
   <si>
-    <t>journey_day0</t>
-  </si>
-  <si>
     <t>i2) Avez-vous déjà sollicité des soins, traitements, ou conseils pour cette maladie avant de venir ici aujourd'hui ?</t>
   </si>
   <si>
@@ -242,9 +186,6 @@
     <t>crfs_t04a_b1_3</t>
   </si>
   <si>
-    <t>prev_chf_day0</t>
-  </si>
-  <si>
     <t>i3) You mentioned that you already came here. When was your previous visit?</t>
   </si>
   <si>
@@ -254,9 +195,6 @@
     <t>crfs_t04a_b1_2a</t>
   </si>
   <si>
-    <t>prev_hf_type_day0</t>
-  </si>
-  <si>
     <t>i4) You mentioned that you went to another health facility. In what type(s) of facility did you seek care?</t>
   </si>
   <si>
@@ -266,18 +204,12 @@
     <t>crfs_t04a_b2_2a_o</t>
   </si>
   <si>
-    <t>prev_hf_typeoth_day0</t>
-  </si>
-  <si>
     <t>i4.a) Please specify.</t>
   </si>
   <si>
     <t>crfs_t04a_b1_1</t>
   </si>
   <si>
-    <t>prev_referral_day0</t>
-  </si>
-  <si>
     <t>i5) Has ${child_fname} been referred here from another facility?</t>
   </si>
   <si>
@@ -287,9 +219,6 @@
     <t>crfs_t04a_b1_5</t>
   </si>
   <si>
-    <t>prev_hosp_day0</t>
-  </si>
-  <si>
     <t>i7) Has ${child_fname} been hospitalized for this illness?</t>
   </si>
   <si>
@@ -299,27 +228,18 @@
     <t>crfs_t04a_b1_2b</t>
   </si>
   <si>
-    <t>prev_nonhf_day0</t>
-  </si>
-  <si>
     <t>i8) You mentioned that you sought care / treatment / advice elsewhere than in a health facility. What did you do exactly?</t>
   </si>
   <si>
     <t>crfs_t04a_b2_2b_o</t>
   </si>
   <si>
-    <t>prev_nonhfoth_day0</t>
-  </si>
-  <si>
     <t>i8.a) Please specify.</t>
   </si>
   <si>
     <t>crfs_t04a_b1_4</t>
   </si>
   <si>
-    <t>prev_rx_day0</t>
-  </si>
-  <si>
     <t>i9) What treatment did ${child_fname} receive?</t>
   </si>
   <si>
@@ -329,18 +249,12 @@
     <t>crfs_t04a_b1_4o</t>
   </si>
   <si>
-    <t>prev_rxoth_day0</t>
-  </si>
-  <si>
     <t>i9.a) Please specify.</t>
   </si>
   <si>
     <t>crfs_t04a_b2_1</t>
   </si>
   <si>
-    <t>trans_type_day0</t>
-  </si>
-  <si>
     <t>i12) How did you get here?</t>
   </si>
   <si>
@@ -350,18 +264,12 @@
     <t>crfs_t04a_b2_1o</t>
   </si>
   <si>
-    <t>trans_oth_day0</t>
-  </si>
-  <si>
     <t>i12.a) Please specify.</t>
   </si>
   <si>
     <t>crfs_t04a_b2_2</t>
   </si>
   <si>
-    <t>trans_time_day0</t>
-  </si>
-  <si>
     <t>i13) How long did it take you to travel from your home to here?</t>
   </si>
   <si>
@@ -371,9 +279,6 @@
     <t>crfs_t04a_b2_3</t>
   </si>
   <si>
-    <t>cost_day0</t>
-  </si>
-  <si>
     <t>i14) What is the estimated amount of money you spent for transport - and overnight if applicable - to get here today?</t>
   </si>
   <si>
@@ -407,9 +312,6 @@
     <t>crfs_t09a1_referral</t>
   </si>
   <si>
-    <t>referral_cg_day0</t>
-  </si>
-  <si>
     <t>k1) Has ${child_fname} been referred by the healthcare provider?</t>
   </si>
   <si>
@@ -419,36 +321,24 @@
     <t>crfs_t09a1_referral_note</t>
   </si>
   <si>
-    <t>referral_note_day0</t>
-  </si>
-  <si>
     <t>k2) Do you have a referral note ?</t>
   </si>
   <si>
     <t>crfs_t09a1_fu</t>
   </si>
   <si>
-    <t>fu_advice_day0</t>
-  </si>
-  <si>
     <t>k3) Do you need to come back here for a follow-up visit?</t>
   </si>
   <si>
     <t>crfs_t09a1_injection</t>
   </si>
   <si>
-    <t>inj_day0</t>
-  </si>
-  <si>
     <t>k4) Did ${child_fname} receive an injection?</t>
   </si>
   <si>
     <t>crfs_t09a1_injection_types</t>
   </si>
   <si>
-    <t>inj_type_day0</t>
-  </si>
-  <si>
     <t>k5) What type of injection was it?</t>
   </si>
   <si>
@@ -458,27 +348,18 @@
     <t>crfs_t09a1_injection_typeso</t>
   </si>
   <si>
-    <t>inj_othtype_day0</t>
-  </si>
-  <si>
     <t>k5.a) Please specify.</t>
   </si>
   <si>
     <t>crfs_t09a1_h2_1a</t>
   </si>
   <si>
-    <t>rx_cg_day0</t>
-  </si>
-  <si>
     <t>k6) Did the healthcare provider give you a medication prescription for ${child_fname}?</t>
   </si>
   <si>
     <t>crfs_t09a1_h2_2</t>
   </si>
   <si>
-    <t>rx_type_day0</t>
-  </si>
-  <si>
     <t>k9) Please select all the antibiotics / antimalarials that are listed in the prescription.</t>
   </si>
   <si>
@@ -488,18 +369,12 @@
     <t>crfs_t09a1_h2_2o</t>
   </si>
   <si>
-    <t>rx_othtype_day0</t>
-  </si>
-  <si>
     <t>k9.a) Please specify.</t>
   </si>
   <si>
     <t>crfs_t09a2_b1_9</t>
   </si>
   <si>
-    <t>consult_type_day0</t>
-  </si>
-  <si>
     <t>l2) What type of visit was it according to the registry of the  healthcare provider?</t>
   </si>
   <si>
@@ -509,9 +384,6 @@
     <t>crfs_t09a2_g3_1</t>
   </si>
   <si>
-    <t>dx_day0</t>
-  </si>
-  <si>
     <t>l1) What are the discharge diagnoses for ${child_fname}?</t>
   </si>
   <si>
@@ -521,27 +393,18 @@
     <t>crfs_t09a2_g3_1o</t>
   </si>
   <si>
-    <t>dx_oth_day0</t>
-  </si>
-  <si>
     <t>l1.a) Please specify</t>
   </si>
   <si>
     <t>crfs_t09a2_i2_1</t>
   </si>
   <si>
-    <t>referral_hf_day0</t>
-  </si>
-  <si>
     <t>l3) Was a referral advice recorded for ${child_fname}?</t>
   </si>
   <si>
     <t>crfs_t09a2_i2_1a</t>
   </si>
   <si>
-    <t>urg_referral_hf_day0</t>
-  </si>
-  <si>
     <t>l4) What type of referral was it?</t>
   </si>
   <si>
@@ -551,45 +414,30 @@
     <t>crfs_t09a2_j2_1</t>
   </si>
   <si>
-    <t>fu_advice_hf_day0</t>
-  </si>
-  <si>
     <t>l6) Was a follow-up visit advice recorded for ${child_fname}?</t>
   </si>
   <si>
     <t>crfs_t09a2_j2_1c</t>
   </si>
   <si>
-    <t>fu_days_day0</t>
-  </si>
-  <si>
     <t>l7) In how many days should the follow-up visit be conducted?</t>
   </si>
   <si>
     <t>crfs_t09a2_h2_2a</t>
   </si>
   <si>
-    <t>rx_type_hf_day0</t>
-  </si>
-  <si>
     <t>l8) Please select all the antibiotics / antimalarials that are listed in the facility registry</t>
   </si>
   <si>
     <t>crfs_t09a2_h2_2ao</t>
   </si>
   <si>
-    <t>rx_othtype_hf_day0</t>
-  </si>
-  <si>
     <t>l8.a) Please specify</t>
   </si>
   <si>
     <t>crfs_t07a_tt07a_e2_1</t>
   </si>
   <si>
-    <t>rr_y_day0</t>
-  </si>
-  <si>
     <t>m1) Respiratory rate</t>
   </si>
   <si>
@@ -599,81 +447,54 @@
     <t>crfs_t07a_tt07a_e2_1a</t>
   </si>
   <si>
-    <t>rr_day0</t>
-  </si>
-  <si>
     <t>m2) Respiratory rate value</t>
   </si>
   <si>
     <t>crfs_t07a_tt07a_e2_2</t>
   </si>
   <si>
-    <t>spo2_day0</t>
-  </si>
-  <si>
     <t>m3) SpO2 measure #1</t>
   </si>
   <si>
     <t>crfs_t07a_tt07a_e2_2a</t>
   </si>
   <si>
-    <t>spo2_meas1_day0</t>
-  </si>
-  <si>
     <t>m4) SpO2 value #1</t>
   </si>
   <si>
     <t>crfs_t07a_tt07a_e2_3</t>
   </si>
   <si>
-    <t>spo2_rpt2_day0</t>
-  </si>
-  <si>
     <t>m5) SpO2 measure #2</t>
   </si>
   <si>
     <t>crfs_t07a_tt07a_e2_3a</t>
   </si>
   <si>
-    <t>spo2_meas2_day0</t>
-  </si>
-  <si>
     <t>m6) SpO2 value #2</t>
   </si>
   <si>
     <t>crfs_t07a_tt07a_e2_4</t>
   </si>
   <si>
-    <t>spo2_rept3_day0</t>
-  </si>
-  <si>
     <t>m7) SpO2 measure #3</t>
   </si>
   <si>
     <t>crfs_t07a_tt07a_e2_4a</t>
   </si>
   <si>
-    <t>spo2_meas3_day0</t>
-  </si>
-  <si>
     <t>m8) SpO2 value #3</t>
   </si>
   <si>
     <t>crfs_t06a_tt06a_d2_6</t>
   </si>
   <si>
-    <t>temp_day0</t>
-  </si>
-  <si>
     <t>n1) Temperature</t>
   </si>
   <si>
     <t>crfs_t06a_d2_6b</t>
   </si>
   <si>
-    <t>temp_meas_day0</t>
-  </si>
-  <si>
     <t>n7) Temperature (in °C)</t>
   </si>
   <si>
@@ -683,72 +504,48 @@
     <t>crfs_t06a_tt06a_d2_1</t>
   </si>
   <si>
-    <t>muac_day0</t>
-  </si>
-  <si>
     <t>n2) Mid-Upper Arm Circumference (MUAC)</t>
   </si>
   <si>
     <t>crfs_t06a_d2_1a</t>
   </si>
   <si>
-    <t>muac_meas_day0</t>
-  </si>
-  <si>
     <t>n8) MUAC value (in mm)</t>
   </si>
   <si>
     <t>crfs_t06a_tt06a_d2_4</t>
   </si>
   <si>
-    <t>wt_day0</t>
-  </si>
-  <si>
     <t>n3) Weight</t>
   </si>
   <si>
     <t>crfs_t06a_d2_4a</t>
   </si>
   <si>
-    <t>wt_meas_day0</t>
-  </si>
-  <si>
     <t>n9) Weight value (in kg)</t>
   </si>
   <si>
     <t>crfs_t06a_tt06a_d2_5</t>
   </si>
   <si>
-    <t>ht_day0</t>
-  </si>
-  <si>
     <t>n4) Height</t>
   </si>
   <si>
     <t>crfs_t06a_d2_5a</t>
   </si>
   <si>
-    <t>ht_meas_day0</t>
-  </si>
-  <si>
     <t>n10) Height value (in cm)</t>
   </si>
   <si>
     <t>crfs_t06a_tt06a_d2_2</t>
   </si>
   <si>
-    <t>wfh_day0</t>
-  </si>
-  <si>
     <t>n5) Weight-For-Height (WFH)</t>
   </si>
   <si>
     <t>crfs_t06a_d2_2b</t>
   </si>
   <si>
-    <t>wfh_meas_day0</t>
-  </si>
-  <si>
     <t>n11) WFH z-score</t>
   </si>
   <si>
@@ -758,27 +555,18 @@
     <t>crfs_t06a_tt06a_d2_3</t>
   </si>
   <si>
-    <t>wfa_day0</t>
-  </si>
-  <si>
     <t>n6) Weight-For-Age (WFA)</t>
   </si>
   <si>
     <t>crfs_t06a_d2_3b</t>
   </si>
   <si>
-    <t>wfa_meas_day0</t>
-  </si>
-  <si>
     <t>n12) WFA z-score</t>
   </si>
   <si>
     <t>crfs_t08a_f2_1</t>
   </si>
   <si>
-    <t>tests_day0</t>
-  </si>
-  <si>
     <t>o1) What type of laboratory tests were ordered during this visit?</t>
   </si>
   <si>
@@ -788,18 +576,12 @@
     <t>crfs_t08a_f2_1o</t>
   </si>
   <si>
-    <t>tests_oth_day0</t>
-  </si>
-  <si>
     <t>o1.a) Please specify</t>
   </si>
   <si>
     <t>crfs_t08a_f2_2</t>
   </si>
   <si>
-    <t>malaria_ttype_day0</t>
-  </si>
-  <si>
     <t>o2) What type of malaria test was ordered?</t>
   </si>
   <si>
@@ -809,9 +591,6 @@
     <t>crfs_t08a_f2_3</t>
   </si>
   <si>
-    <t>malaria_res_day0</t>
-  </si>
-  <si>
     <t>o3) Malaria test result</t>
   </si>
   <si>
@@ -821,9 +600,6 @@
     <t>crfs_t08a_f2_4</t>
   </si>
   <si>
-    <t>hb_ttype_day0</t>
-  </si>
-  <si>
     <t>o4) What type of haemoglobin test was ordered?</t>
   </si>
   <si>
@@ -833,27 +609,18 @@
     <t>crfs_t08a_f2_5</t>
   </si>
   <si>
-    <t>hb_res_day0</t>
-  </si>
-  <si>
     <t>o5) Haemoglobin level (in g/dL)</t>
   </si>
   <si>
     <t>crfs_t08a_f2_10a</t>
   </si>
   <si>
-    <t>bg_res_day0</t>
-  </si>
-  <si>
     <t>o6) Blood glucose value (in mg/dL)</t>
   </si>
   <si>
     <t>crfs_t08a_f2_6</t>
   </si>
   <si>
-    <t>urine_res_day0</t>
-  </si>
-  <si>
     <t>o7) Urine dipstick test result</t>
   </si>
   <si>
@@ -863,36 +630,24 @@
     <t>crfs_t08a_f2_7</t>
   </si>
   <si>
-    <t>stool_res_day0</t>
-  </si>
-  <si>
     <t>o8) Stool analysis test result</t>
   </si>
   <si>
     <t>crfs_t08a_f2_8</t>
   </si>
   <si>
-    <t>hiv_res_day0</t>
-  </si>
-  <si>
     <t>o9) HIV test result</t>
   </si>
   <si>
     <t>crfs_t08a_f2_9</t>
   </si>
   <si>
-    <t>tb_res_day0</t>
-  </si>
-  <si>
     <t>o10) TB test result</t>
   </si>
   <si>
     <t>crfs_t05b_c3_1</t>
   </si>
   <si>
-    <t>hiv_day0</t>
-  </si>
-  <si>
     <t>p1) Is the HIV status of the child recorded?</t>
   </si>
   <si>
@@ -902,9 +657,6 @@
     <t>crfs_t05b_c3_2</t>
   </si>
   <si>
-    <t>mother_hiv_day0</t>
-  </si>
-  <si>
     <t>p2) Is the maternal HIV status recorded?</t>
   </si>
   <si>
@@ -914,18 +666,12 @@
     <t>crfs_t05b_c3_3</t>
   </si>
   <si>
-    <t>tb_ppx_day0</t>
-  </si>
-  <si>
     <t>p3) Is the child on TB prophylaxis?</t>
   </si>
   <si>
     <t>crfs_t05b_c3_3a</t>
   </si>
   <si>
-    <t>tb_day0</t>
-  </si>
-  <si>
     <t>p4) Is the TB status recorded?</t>
   </si>
   <si>
@@ -935,9 +681,6 @@
     <t>crfs_t05b_c3_4</t>
   </si>
   <si>
-    <t>scd_day0</t>
-  </si>
-  <si>
     <t>p5) Is the sickle-cell status recorded?</t>
   </si>
   <si>
@@ -947,18 +690,12 @@
     <t>crfs_t05b_c3_6a</t>
   </si>
   <si>
-    <t>pwd_day0</t>
-  </si>
-  <si>
     <t>p6) Are any disabilities recorded?</t>
   </si>
   <si>
     <t>crfs_t05b_c3_6</t>
   </si>
   <si>
-    <t>pwd_type_day0</t>
-  </si>
-  <si>
     <t>p7) What disability is recorded?</t>
   </si>
   <si>
@@ -968,10 +705,274 @@
     <t>crfs_t05b_c3_6o</t>
   </si>
   <si>
-    <t>pwd_othtype_day0</t>
-  </si>
-  <si>
     <t>p7.a) Please specify</t>
+  </si>
+  <si>
+    <t>date_visit</t>
+  </si>
+  <si>
+    <t>sick_duration</t>
+  </si>
+  <si>
+    <t>sx_convulsions</t>
+  </si>
+  <si>
+    <t>sx_lethargy</t>
+  </si>
+  <si>
+    <t>sx_vomit</t>
+  </si>
+  <si>
+    <t>sx_vomit_evthing</t>
+  </si>
+  <si>
+    <t>sx_less_feed</t>
+  </si>
+  <si>
+    <t>sx_unable_feed</t>
+  </si>
+  <si>
+    <t>sx_cough</t>
+  </si>
+  <si>
+    <t>sx_cough_onset</t>
+  </si>
+  <si>
+    <t>sx_difficulty_breath</t>
+  </si>
+  <si>
+    <t>sx_difficulty_breath_onset</t>
+  </si>
+  <si>
+    <t>sx_diarrhoea</t>
+  </si>
+  <si>
+    <t>sx_diarrhoea_onset</t>
+  </si>
+  <si>
+    <t>sx_fever</t>
+  </si>
+  <si>
+    <t>sx_fever_onset</t>
+  </si>
+  <si>
+    <t>sx_var</t>
+  </si>
+  <si>
+    <t>sx_varoth</t>
+  </si>
+  <si>
+    <t>journey</t>
+  </si>
+  <si>
+    <t>prev_chf</t>
+  </si>
+  <si>
+    <t>prev_hf_type</t>
+  </si>
+  <si>
+    <t>prev_hf_typeoth</t>
+  </si>
+  <si>
+    <t>prev_referral</t>
+  </si>
+  <si>
+    <t>prev_hosp</t>
+  </si>
+  <si>
+    <t>prev_nonhf</t>
+  </si>
+  <si>
+    <t>prev_nonhfoth</t>
+  </si>
+  <si>
+    <t>prev_rx</t>
+  </si>
+  <si>
+    <t>prev_rxoth</t>
+  </si>
+  <si>
+    <t>trans_type</t>
+  </si>
+  <si>
+    <t>trans_oth</t>
+  </si>
+  <si>
+    <t>trans_time</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>referral_cg</t>
+  </si>
+  <si>
+    <t>referral_note</t>
+  </si>
+  <si>
+    <t>fu_advice</t>
+  </si>
+  <si>
+    <t>inj</t>
+  </si>
+  <si>
+    <t>inj_type</t>
+  </si>
+  <si>
+    <t>inj_othtype</t>
+  </si>
+  <si>
+    <t>rx_cg</t>
+  </si>
+  <si>
+    <t>rx_type</t>
+  </si>
+  <si>
+    <t>rx_othtype</t>
+  </si>
+  <si>
+    <t>consult_type</t>
+  </si>
+  <si>
+    <t>dx</t>
+  </si>
+  <si>
+    <t>dx_oth</t>
+  </si>
+  <si>
+    <t>referral_hf</t>
+  </si>
+  <si>
+    <t>urg_referral_hf</t>
+  </si>
+  <si>
+    <t>fu_advice_hf</t>
+  </si>
+  <si>
+    <t>fu_days</t>
+  </si>
+  <si>
+    <t>rx_type_hf</t>
+  </si>
+  <si>
+    <t>rx_othtype_hf</t>
+  </si>
+  <si>
+    <t>rr</t>
+  </si>
+  <si>
+    <t>rr_meas</t>
+  </si>
+  <si>
+    <t>spo2</t>
+  </si>
+  <si>
+    <t>spo2_meas1</t>
+  </si>
+  <si>
+    <t>spo2_rpt2</t>
+  </si>
+  <si>
+    <t>spo2_meas2</t>
+  </si>
+  <si>
+    <t>spo2_rept3</t>
+  </si>
+  <si>
+    <t>spo2_meas3</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>temp_meas</t>
+  </si>
+  <si>
+    <t>muac</t>
+  </si>
+  <si>
+    <t>muac_meas</t>
+  </si>
+  <si>
+    <t>wt</t>
+  </si>
+  <si>
+    <t>wt_meas</t>
+  </si>
+  <si>
+    <t>ht</t>
+  </si>
+  <si>
+    <t>ht_meas</t>
+  </si>
+  <si>
+    <t>wfh</t>
+  </si>
+  <si>
+    <t>wfh_meas</t>
+  </si>
+  <si>
+    <t>wfa</t>
+  </si>
+  <si>
+    <t>wfa_meas</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>tests_oth</t>
+  </si>
+  <si>
+    <t>malaria_ttype</t>
+  </si>
+  <si>
+    <t>malaria_res</t>
+  </si>
+  <si>
+    <t>hb_ttype</t>
+  </si>
+  <si>
+    <t>hb_res</t>
+  </si>
+  <si>
+    <t>bg_res</t>
+  </si>
+  <si>
+    <t>urine_res</t>
+  </si>
+  <si>
+    <t>stool_res</t>
+  </si>
+  <si>
+    <t>hiv_res</t>
+  </si>
+  <si>
+    <t>tb_res</t>
+  </si>
+  <si>
+    <t>hiv</t>
+  </si>
+  <si>
+    <t>mother_hiv</t>
+  </si>
+  <si>
+    <t>tb_ppx</t>
+  </si>
+  <si>
+    <t>tb</t>
+  </si>
+  <si>
+    <t>scd</t>
+  </si>
+  <si>
+    <t>pwd</t>
+  </si>
+  <si>
+    <t>pwd_type</t>
+  </si>
+  <si>
+    <t>pwd_othtype</t>
   </si>
 </sst>
 </file>
@@ -1323,10 +1324,765 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B92"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.375" style="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1360,10 +2116,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>5</v>
@@ -1371,1304 +2127,1304 @@
     </row>
     <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>230</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>231</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>28</v>
+        <v>232</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>31</v>
+        <v>233</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>34</v>
+        <v>234</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>235</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>40</v>
+        <v>236</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>43</v>
+        <v>237</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>46</v>
+        <v>238</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>49</v>
+        <v>239</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
+        <v>240</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>55</v>
+        <v>241</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>58</v>
+        <v>242</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>61</v>
+        <v>243</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>65</v>
+        <v>244</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>68</v>
+        <v>245</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>72</v>
+        <v>246</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>80</v>
+        <v>248</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>83</v>
+        <v>249</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>87</v>
+        <v>250</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>91</v>
+        <v>251</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>94</v>
+        <v>252</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>97</v>
+        <v>253</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>101</v>
+        <v>254</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>104</v>
+        <v>255</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>108</v>
+        <v>256</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>111</v>
+        <v>257</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>115</v>
+        <v>258</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>127</v>
+        <v>259</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>131</v>
+        <v>260</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>137</v>
+        <v>262</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>140</v>
+        <v>263</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>144</v>
+        <v>264</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>147</v>
+        <v>265</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>150</v>
+        <v>266</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>154</v>
+        <v>267</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>155</v>
+        <v>114</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>157</v>
+        <v>268</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>161</v>
+        <v>269</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>164</v>
+        <v>121</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>165</v>
+        <v>270</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>166</v>
+        <v>122</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>167</v>
+        <v>123</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>168</v>
+        <v>271</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>171</v>
+        <v>272</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>173</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>174</v>
+        <v>128</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>175</v>
+        <v>273</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>178</v>
+        <v>274</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>180</v>
+        <v>132</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>181</v>
+        <v>275</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>184</v>
+        <v>276</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>186</v>
+        <v>136</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>187</v>
+        <v>277</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>189</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>190</v>
+        <v>139</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>191</v>
+        <v>278</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>193</v>
+        <v>141</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>194</v>
+        <v>279</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>195</v>
+        <v>142</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>189</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>196</v>
+        <v>143</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>197</v>
+        <v>280</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>198</v>
+        <v>144</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>199</v>
+        <v>145</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>200</v>
+        <v>281</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>189</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>203</v>
+        <v>282</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>204</v>
+        <v>148</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>205</v>
+        <v>149</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>206</v>
+        <v>283</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>189</v>
+        <v>138</v>
       </c>
     </row>
     <row r="62" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>209</v>
+        <v>284</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>210</v>
+        <v>152</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>211</v>
+        <v>153</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>212</v>
+        <v>285</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>213</v>
+        <v>154</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>189</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>214</v>
+        <v>155</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>215</v>
+        <v>286</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>217</v>
+        <v>157</v>
       </c>
     </row>
     <row r="65" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>219</v>
+        <v>287</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>220</v>
+        <v>159</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>189</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>221</v>
+        <v>160</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>222</v>
+        <v>288</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>225</v>
+        <v>289</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>226</v>
+        <v>163</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>189</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>227</v>
+        <v>164</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>228</v>
+        <v>290</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>229</v>
+        <v>165</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>230</v>
+        <v>166</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>231</v>
+        <v>291</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>232</v>
+        <v>167</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>189</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>233</v>
+        <v>168</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>234</v>
+        <v>292</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>235</v>
+        <v>169</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>236</v>
+        <v>170</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>237</v>
+        <v>293</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>238</v>
+        <v>171</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>189</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>239</v>
+        <v>172</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>240</v>
+        <v>294</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>241</v>
+        <v>173</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>242</v>
+        <v>174</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>243</v>
+        <v>175</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>244</v>
+        <v>295</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>245</v>
+        <v>176</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>189</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>246</v>
+        <v>177</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>247</v>
+        <v>296</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>248</v>
+        <v>178</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>242</v>
+        <v>174</v>
       </c>
     </row>
     <row r="75" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>249</v>
+        <v>179</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>250</v>
+        <v>297</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>251</v>
+        <v>180</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>252</v>
+        <v>181</v>
       </c>
     </row>
     <row r="76" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>253</v>
+        <v>182</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>254</v>
+        <v>298</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>255</v>
+        <v>183</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
-        <v>256</v>
+        <v>184</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>257</v>
+        <v>299</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>258</v>
+        <v>185</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>259</v>
+        <v>186</v>
       </c>
     </row>
     <row r="78" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
-        <v>260</v>
+        <v>187</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>262</v>
+        <v>188</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>263</v>
+        <v>189</v>
       </c>
     </row>
     <row r="79" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
-        <v>264</v>
+        <v>190</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>266</v>
+        <v>191</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
     </row>
     <row r="80" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>268</v>
+        <v>193</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>270</v>
+        <v>194</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>271</v>
+        <v>195</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>273</v>
+        <v>196</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>274</v>
+        <v>197</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>276</v>
+        <v>198</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>277</v>
+        <v>199</v>
       </c>
     </row>
     <row r="83" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>278</v>
+        <v>200</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>280</v>
+        <v>201</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>263</v>
+        <v>189</v>
       </c>
     </row>
     <row r="84" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>281</v>
+        <v>202</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>283</v>
+        <v>203</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>263</v>
+        <v>189</v>
       </c>
     </row>
     <row r="85" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>284</v>
+        <v>204</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>286</v>
+        <v>205</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>263</v>
+        <v>189</v>
       </c>
     </row>
     <row r="86" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
-        <v>287</v>
+        <v>206</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>289</v>
+        <v>207</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>290</v>
+        <v>208</v>
       </c>
     </row>
     <row r="87" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
-        <v>291</v>
+        <v>209</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>293</v>
+        <v>210</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>294</v>
+        <v>211</v>
       </c>
     </row>
     <row r="88" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
-        <v>295</v>
+        <v>212</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>297</v>
+        <v>213</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
-        <v>298</v>
+        <v>214</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>300</v>
+        <v>215</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>301</v>
+        <v>216</v>
       </c>
     </row>
     <row r="90" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>304</v>
+        <v>218</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>305</v>
+        <v>219</v>
       </c>
     </row>
     <row r="91" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
-        <v>306</v>
+        <v>220</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>308</v>
+        <v>221</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
     </row>
     <row r="92" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
-        <v>309</v>
+        <v>222</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>311</v>
+        <v>223</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>312</v>
+        <v>224</v>
       </c>
     </row>
     <row r="93" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
-        <v>313</v>
+        <v>225</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>315</v>
+        <v>226</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/visit_dict.xlsx
+++ b/inst/extdata/visit_dict.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="319">
   <si>
     <t>old</t>
   </si>
@@ -973,6 +973,15 @@
   </si>
   <si>
     <t>pwd_othtype</t>
+  </si>
+  <si>
+    <t>previous_enrolment_repeat_visit</t>
+  </si>
+  <si>
+    <t>repeat_consult</t>
+  </si>
+  <si>
+    <t>crfs_t05a_illnessduration</t>
   </si>
 </sst>
 </file>
@@ -1324,10 +1333,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B92"/>
+  <dimension ref="A1:B93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1353,722 +1362,730 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>228</v>
+      <c r="A3" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>318</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>244</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>246</v>
+        <v>49</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B34" s="6" t="s">
         <v>258</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B45" s="5" t="s">
         <v>267</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>273</v>
+        <v>125</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>275</v>
+        <v>130</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B54" s="3" t="s">
         <v>276</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B62" s="5" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B74" s="3" t="s">
         <v>296</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B85" s="5" t="s">
         <v>307</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B93" s="7" t="s">
         <v>315</v>
       </c>
     </row>

--- a/inst/extdata/visit_dict.xlsx
+++ b/inst/extdata/visit_dict.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="331">
   <si>
     <t>old</t>
   </si>
@@ -982,6 +982,42 @@
   </si>
   <si>
     <t>crfs_t05a_illnessduration</t>
+  </si>
+  <si>
+    <t>a3_is_young_infant</t>
+  </si>
+  <si>
+    <t>yg_infant</t>
+  </si>
+  <si>
+    <t>crfs_t05a_c1_a_11</t>
+  </si>
+  <si>
+    <t>crfs_t05a_c1_a_11o</t>
+  </si>
+  <si>
+    <t>previous_enrolment_former_timci_id</t>
+  </si>
+  <si>
+    <t>prev_id</t>
+  </si>
+  <si>
+    <t>previous_enrolment_a3_b_2a</t>
+  </si>
+  <si>
+    <t>previous_enrolment_a3_b_2</t>
+  </si>
+  <si>
+    <t>previous_enrolment_a3_b_4</t>
+  </si>
+  <si>
+    <t>prev_hf_id_cg</t>
+  </si>
+  <si>
+    <t>prev_hf_name_cg</t>
+  </si>
+  <si>
+    <t>prev_hf_name_card</t>
   </si>
 </sst>
 </file>
@@ -1333,10 +1369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B93"/>
+  <dimension ref="A1:B98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1370,722 +1406,762 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>228</v>
+      <c r="A4" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>229</v>
+      <c r="A5" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>230</v>
+      <c r="A6" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>231</v>
+      <c r="A7" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>232</v>
+      <c r="A8" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>24</v>
+        <v>318</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>244</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>250</v>
+        <v>49</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>87</v>
+      <c r="A35" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>91</v>
+      <c r="A36" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>259</v>
+        <v>78</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>260</v>
+        <v>80</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>261</v>
+        <v>83</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>262</v>
+      <c r="A40" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>263</v>
+      <c r="A41" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B50" s="5" t="s">
         <v>267</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>273</v>
+        <v>115</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>274</v>
+        <v>118</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B59" s="3" t="s">
         <v>276</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B67" s="5" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B79" s="3" t="s">
         <v>296</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B90" s="5" t="s">
         <v>307</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B98" s="7" t="s">
         <v>315</v>
       </c>
     </row>
